--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829/Roxie_vs_MM_NormalMCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829/Roxie_vs_MM_NormalMCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829.xlsx
@@ -573,49 +573,49 @@
         <v>-1200</v>
       </c>
       <c r="C2">
-        <v>0.1183860393500411</v>
+        <v>0.1183896184703698</v>
       </c>
       <c r="D2">
-        <v>0.00230133979083974</v>
+        <v>0.002301410686860132</v>
       </c>
       <c r="E2">
-        <v>0.0008574805194835783</v>
+        <v>0.0008575038752166057</v>
       </c>
       <c r="F2">
-        <v>0.0001394521725146034</v>
+        <v>0.0001394534550172098</v>
       </c>
       <c r="G2">
-        <v>-3.210187347935609E-05</v>
+        <v>-3.210117309044513E-05</v>
       </c>
       <c r="H2">
-        <v>-2.119665048552088E-05</v>
+        <v>-2.119647117221659E-05</v>
       </c>
       <c r="I2">
-        <v>5.214269363766142E-07</v>
+        <v>5.207718373618362E-07</v>
       </c>
       <c r="J2">
-        <v>1.684769218738439E-05</v>
+        <v>1.684812380648042E-05</v>
       </c>
       <c r="K2">
-        <v>1.251403862261463E-05</v>
+        <v>1.25144819852624E-05</v>
       </c>
       <c r="L2">
-        <v>1.415308036035669E-21</v>
+        <v>2.145513794398012E-21</v>
       </c>
       <c r="M2">
-        <v>-4.369152601616705E-06</v>
+        <v>-4.368682909630185E-06</v>
       </c>
       <c r="N2">
-        <v>-4.950798302281746E-07</v>
+        <v>-4.953786342052895E-07</v>
       </c>
       <c r="O2">
-        <v>2.566127663335538E-06</v>
+        <v>2.566796402905665E-06</v>
       </c>
       <c r="P2">
-        <v>1.47758491218326E-06</v>
+        <v>1.478987012050582E-06</v>
       </c>
       <c r="Q2">
-        <v>-1.658020328710175E-06</v>
+        <v>-1.658822498585013E-06</v>
       </c>
       <c r="R2">
         <v>-0.2988425617549172</v>
@@ -671,49 +671,49 @@
         <v>-600</v>
       </c>
       <c r="C3">
-        <v>4341.06064004674</v>
+        <v>4341.060639831485</v>
       </c>
       <c r="D3">
-        <v>-0.6068694079168007</v>
+        <v>-0.6068681968003229</v>
       </c>
       <c r="E3">
-        <v>-4.54089020334747</v>
+        <v>-4.540890098426384</v>
       </c>
       <c r="F3">
-        <v>0.1050895747955016</v>
+        <v>0.1050883305032665</v>
       </c>
       <c r="G3">
-        <v>0.4893673273781828</v>
+        <v>0.4893671929566888</v>
       </c>
       <c r="H3">
-        <v>-0.01440667124294713</v>
+        <v>-0.01440701500776472</v>
       </c>
       <c r="I3">
-        <v>0.3799667113141205</v>
+        <v>0.3799667260105871</v>
       </c>
       <c r="J3">
-        <v>0.02128795208826141</v>
+        <v>0.02128776595073632</v>
       </c>
       <c r="K3">
-        <v>0.1593288686215064</v>
+        <v>0.1593289041866302</v>
       </c>
       <c r="L3">
-        <v>-7.730602139223984E-19</v>
+        <v>-8.79438702468861E-19</v>
       </c>
       <c r="M3">
-        <v>-0.04465716920825746</v>
+        <v>-0.0446570881146814</v>
       </c>
       <c r="N3">
-        <v>-0.0008103612199631021</v>
+        <v>-0.0008103375141139757</v>
       </c>
       <c r="O3">
-        <v>-0.01608331029386628</v>
+        <v>-0.01608322002141172</v>
       </c>
       <c r="P3">
-        <v>-0.00130741798804741</v>
+        <v>-0.001307700664396518</v>
       </c>
       <c r="Q3">
-        <v>0.001587525837239139</v>
+        <v>0.001587599206062249</v>
       </c>
       <c r="R3">
         <v>3883.249378802444</v>
@@ -772,46 +772,46 @@
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>-0.8900641378684755</v>
+        <v>-0.8900695341747269</v>
       </c>
       <c r="E4">
-        <v>-15.89767091395338</v>
+        <v>-15.8976711165716</v>
       </c>
       <c r="F4">
-        <v>0.01060322289803091</v>
+        <v>0.01060757540990058</v>
       </c>
       <c r="G4">
-        <v>1.630047065753299</v>
+        <v>1.630046692056388</v>
       </c>
       <c r="H4">
-        <v>-0.3047226625322466</v>
+        <v>-0.304725025184418</v>
       </c>
       <c r="I4">
-        <v>2.970165263395972</v>
+        <v>2.970165128267125</v>
       </c>
       <c r="J4">
-        <v>-0.05750277392691777</v>
+        <v>-0.05750204513569923</v>
       </c>
       <c r="K4">
-        <v>0.8681553205568878</v>
+        <v>0.8681552129446711</v>
       </c>
       <c r="L4">
-        <v>2.733063442741305E-18</v>
+        <v>9.522638450391118E-19</v>
       </c>
       <c r="M4">
-        <v>-0.08103766862292643</v>
+        <v>-0.08103767797633785</v>
       </c>
       <c r="N4">
-        <v>0.01075472979336808</v>
+        <v>0.01075489273654642</v>
       </c>
       <c r="O4">
-        <v>-0.05077199853951141</v>
+        <v>-0.05077208423854798</v>
       </c>
       <c r="P4">
-        <v>-0.0001868226663042131</v>
+        <v>-0.0001869130471513532</v>
       </c>
       <c r="Q4">
-        <v>-0.002235528074433531</v>
+        <v>-0.002235502942625419</v>
       </c>
       <c r="R4">
         <v>9999.54449330356</v>
@@ -867,49 +867,49 @@
         <v>600</v>
       </c>
       <c r="C5">
-        <v>4404.252194885168</v>
+        <v>4404.25219464461</v>
       </c>
       <c r="D5">
-        <v>-0.5516602614060726</v>
+        <v>-0.5516606009148485</v>
       </c>
       <c r="E5">
-        <v>-1.432654640782542</v>
+        <v>-1.4326546793322</v>
       </c>
       <c r="F5">
-        <v>-0.002949883058523232</v>
+        <v>-0.002949087605692417</v>
       </c>
       <c r="G5">
-        <v>1.082064880629744</v>
+        <v>1.082064651609396</v>
       </c>
       <c r="H5">
-        <v>0.04232647179714417</v>
+        <v>0.04232647786563479</v>
       </c>
       <c r="I5">
-        <v>0.5230814397535205</v>
+        <v>0.5230814270238476</v>
       </c>
       <c r="J5">
-        <v>-0.006584702265489876</v>
+        <v>-0.006584709079552232</v>
       </c>
       <c r="K5">
-        <v>0.1844791668057661</v>
+        <v>0.1844791389235795</v>
       </c>
       <c r="L5">
-        <v>-2.553990832358055E-18</v>
+        <v>-4.910075573282017E-18</v>
       </c>
       <c r="M5">
-        <v>-0.0421198702665234</v>
+        <v>-0.04211992078090128</v>
       </c>
       <c r="N5">
-        <v>8.36260661845433E-06</v>
+        <v>8.272991291960911E-06</v>
       </c>
       <c r="O5">
-        <v>-0.01768110568311046</v>
+        <v>-0.01768106278033645</v>
       </c>
       <c r="P5">
-        <v>0.001157590893551761</v>
+        <v>0.001157488769024358</v>
       </c>
       <c r="Q5">
-        <v>0.002333064671005416</v>
+        <v>0.002333056965576663</v>
       </c>
       <c r="R5">
         <v>3924.583743737668</v>
@@ -965,49 +965,49 @@
         <v>1200</v>
       </c>
       <c r="C6">
-        <v>1.467546481350794</v>
+        <v>1.467542114759072</v>
       </c>
       <c r="D6">
-        <v>0.007961289719107182</v>
+        <v>0.007961173310820142</v>
       </c>
       <c r="E6">
-        <v>-0.001192940530345142</v>
+        <v>-0.001193003999356259</v>
       </c>
       <c r="F6">
-        <v>0.0004520157809669995</v>
+        <v>0.0004519953111792061</v>
       </c>
       <c r="G6">
-        <v>0.0001145994285170107</v>
+        <v>0.0001145876870249301</v>
       </c>
       <c r="H6">
-        <v>-8.65358764581062E-05</v>
+        <v>-8.653749541732815E-05</v>
       </c>
       <c r="I6">
-        <v>-5.174672527027942E-05</v>
+        <v>-5.173936226425059E-05</v>
       </c>
       <c r="J6">
-        <v>3.882982178735732E-05</v>
+        <v>3.883305770605964E-05</v>
       </c>
       <c r="K6">
-        <v>3.912234433936634E-05</v>
+        <v>3.911248819057649E-05</v>
       </c>
       <c r="L6">
-        <v>1.633999486423599E-20</v>
+        <v>-3.46634575910444E-21</v>
       </c>
       <c r="M6">
-        <v>4.016742560768857E-05</v>
+        <v>4.017186359178125E-05</v>
       </c>
       <c r="N6">
-        <v>-2.999543112068939E-05</v>
+        <v>-2.997484793584059E-05</v>
       </c>
       <c r="O6">
-        <v>-1.756950655117136E-05</v>
+        <v>-1.756507324122266E-05</v>
       </c>
       <c r="P6">
-        <v>2.95155806227773E-06</v>
+        <v>2.944541355461839E-06</v>
       </c>
       <c r="Q6">
-        <v>-2.419298117969144E-05</v>
+        <v>-2.418019690330101E-05</v>
       </c>
       <c r="R6">
         <v>1.629919257347524</v>
